--- a/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\신규 캐릭터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\GameDesign\가디언 테일즈\2. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,259 +87,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>마리나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래공주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오그마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜탱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐탱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반사탱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패 o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퓨어탱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레이그 상위호환 느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레이그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래공주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오그마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>란팡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 (타일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 5초 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 3초 50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명 배율 4초 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 5초 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이샤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 n초 n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 n초 n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>업데이트 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마리나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미래공주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오그마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜탱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐탱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반사탱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방패 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방패 o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퓨어탱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크레이그 상위호환 느낌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마리나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크레이그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미래공주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오그마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>란팡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 (타일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 5초 30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 3초 50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베로니카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명 배율 4초 100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 5초 30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이샤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 n초 n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 n초 n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화/전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무/원거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수/원거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암/탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지/전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화/지원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광/탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수/원거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암/전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지/전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광/지원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화/전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무/원거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수/지원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암/지원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피감</t>
+    <t>화 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,6 +476,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,7 +781,7 @@
     <col min="3" max="10" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -740,8 +810,12 @@
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +847,14 @@
         <f>SUM(C2:J2)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -806,8 +886,14 @@
         <f t="shared" ref="K3:K7" si="0">SUM(C3:J3)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -839,8 +925,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -872,8 +964,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -905,8 +1006,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -938,8 +1048,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -977,102 +1097,196 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="N8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M10" s="7"/>
+      <c r="N10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>788</v>
@@ -1083,10 +1297,15 @@
       <c r="E17">
         <v>695</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="M17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3">
         <v>33523</v>
@@ -1097,10 +1316,15 @@
       <c r="E18" s="3">
         <v>30804</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="M18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>476</v>
@@ -1111,10 +1335,15 @@
       <c r="E19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="M19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1125,8 +1354,17 @@
       <c r="E20">
         <v>22</v>
       </c>
+      <c r="M20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M21" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1145,85 +1383,85 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1231,63 +1469,63 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\GameDesign\가디언 테일즈\2. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\가디언 테일즈\2. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF4F036-62F6-4F9F-BD5A-CF2A6751A08F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,22 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 n초 n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 n초 n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,13 +377,17 @@
   </si>
   <si>
     <t>슬로스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 3초 20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,9 +467,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,11 +758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,10 +799,10 @@
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="4"/>
+      <c r="N1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -847,11 +836,11 @@
         <f>SUM(C2:J2)</f>
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>89</v>
+      <c r="N2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -886,11 +875,11 @@
         <f t="shared" ref="K3:K7" si="0">SUM(C3:J3)</f>
         <v>9</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>65</v>
+      <c r="N3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -925,11 +914,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>67</v>
+      <c r="N4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -964,15 +953,15 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="N5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1006,15 +995,15 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="N6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1048,16 +1037,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="N7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -1097,114 +1086,114 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M10" s="6"/>
+      <c r="N10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N9" s="5" t="s">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M10" s="7"/>
-      <c r="N10" s="5" t="s">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="O13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -1217,19 +1206,19 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
@@ -1247,17 +1236,17 @@
       <c r="H15" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
@@ -1270,23 +1259,23 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>788</v>
@@ -1297,15 +1286,18 @@
       <c r="E17">
         <v>695</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
+      <c r="G17">
+        <v>643</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3">
         <v>33523</v>
@@ -1316,15 +1308,18 @@
       <c r="E18" s="3">
         <v>30804</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
+      <c r="G18" s="3">
+        <v>32815</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>476</v>
@@ -1335,15 +1330,18 @@
       <c r="E19">
         <v>200</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="G19">
+        <v>532</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1354,12 +1352,47 @@
       <c r="E20">
         <v>22</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="M21" s="7"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f>SUM(C17:C19)</f>
+        <v>34787</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="2">SUM(D17:D19)</f>
+        <v>31633</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>31699</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G17:G19)</f>
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f>C17+C19</f>
+        <v>1264</v>
+      </c>
+      <c r="D26">
+        <f>D17+D19</f>
+        <v>916</v>
+      </c>
+      <c r="E26">
+        <f>E17+E19</f>
+        <v>895</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1368,15 +1401,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C23:E23" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1478,7 +1514,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1515,17 +1551,6 @@
       </c>
       <c r="D12" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\가디언 테일즈\2. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\GameDesign\가디언 테일즈\2. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF4F036-62F6-4F9F-BD5A-CF2A6751A08F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크레이그 상위호환 느낌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,13 +376,85 @@
   </si>
   <si>
     <t>방어력 3초 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3242-3560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치확</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깡방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>724-795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119-131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3225-3541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>747-820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2950-3150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>685-750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" s="7"/>
     </row>
@@ -837,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -876,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -915,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -954,10 +1021,10 @@
         <v>9</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -996,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1038,10 +1105,10 @@
         <v>9</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1087,10 +1154,10 @@
         <v>54</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1099,10 +1166,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1112,10 +1179,10 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M10" s="6"/>
       <c r="N10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1136,10 +1203,10 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1160,10 +1227,10 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1185,10 +1252,10 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1206,14 +1273,14 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1233,15 +1300,12 @@
       <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -1259,14 +1323,14 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1275,7 +1339,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>788</v>
@@ -1297,7 +1361,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3">
         <v>33523</v>
@@ -1319,7 +1383,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>476</v>
@@ -1341,7 +1405,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1353,7 +1417,7 @@
         <v>22</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M20" s="6"/>
       <c r="P20" s="6"/>
@@ -1361,6 +1425,16 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>3560-3242</f>
+        <v>318</v>
+      </c>
+      <c r="N22">
+        <f>3541-3225</f>
+        <v>316</v>
+      </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C23">
@@ -1379,6 +1453,62 @@
         <f>SUM(G17:G19)</f>
         <v>33990</v>
       </c>
+      <c r="K23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23">
+        <f>3560-3242</f>
+        <v>318</v>
+      </c>
+      <c r="N23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23">
+        <f>3541-3225</f>
+        <v>316</v>
+      </c>
+      <c r="P23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24">
+        <f>795-724</f>
+        <v>71</v>
+      </c>
+      <c r="N24" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <f>820-747</f>
+        <v>73</v>
+      </c>
+      <c r="P24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25">
+        <v>12</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C26">
@@ -1392,6 +1522,80 @@
       <c r="E26">
         <f>E17+E19</f>
         <v>895</v>
+      </c>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="N27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="P28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1402,102 +1606,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C23:E23" formulaRange="1"/>
+    <ignoredError sqref="C23:E23 G23" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1505,52 +1709,52 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
@@ -829,7 +829,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\GameDesign\가디언 테일즈\2. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\가디언 테일즈\2. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,10 @@
   </si>
   <si>
     <t>보조 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,15 +1617,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -1631,8 +1635,11 @@
       <c r="F1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1649,12 +1656,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1682,7 +1689,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1721,7 +1728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1743,7 +1750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>

--- a/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_캐릭터분석.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\가디언 테일즈\2. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\가디언 테일즈\2. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D892DD-6EEE-4CF4-BC2F-54C9772380A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,13 +453,21 @@
   </si>
   <si>
     <t>기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -519,13 +528,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,6 +569,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,11 +852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -983,7 +1006,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>61</v>
@@ -1135,7 +1158,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
@@ -1155,7 +1178,7 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>69</v>
@@ -1358,6 +1381,12 @@
         <v>643</v>
       </c>
       <c r="M17" s="6"/>
+      <c r="N17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
@@ -1616,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
